--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rcc57bc01f8734588"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2aa1e7e67e22468b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2aa1e7e67e22468b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re54decd9c0414f13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re54decd9c0414f13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3b3c7597817d45d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3b3c7597817d45d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R256a7b0efe9b4369"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R256a7b0efe9b4369"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R40774f2d9a074df7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R40774f2d9a074df7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R6c1e2f3d050946a4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R6c1e2f3d050946a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R04fc62eb09494a9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R04fc62eb09494a9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2f5f4c44162343fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2f5f4c44162343fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Raf8f78dda9e74812"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Raf8f78dda9e74812"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rbb9c97dc3952426c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rbb9c97dc3952426c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R797bec1d6aba478d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R797bec1d6aba478d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb87d7e2300ea4ca8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/030_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb87d7e2300ea4ca8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R761961c7a41343c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
